--- a/global/CrystalAttRepo.xlsx
+++ b/global/CrystalAttRepo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -51,7 +51,10 @@
     <t>attType</t>
   </si>
   <si>
-    <t>attValue</t>
+    <t>attValueMin</t>
+  </si>
+  <si>
+    <t>attValueMax</t>
   </si>
   <si>
     <t>attGrowRatio</t>
@@ -75,7 +78,10 @@
     <t>属性类型</t>
   </si>
   <si>
-    <t>属性值</t>
+    <t>属性值最小值</t>
+  </si>
+  <si>
+    <t>属性值最大值</t>
   </si>
   <si>
     <t>属性成长率</t>
@@ -2045,10 +2051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
@@ -2058,14 +2064,16 @@
     <col min="3" max="4" width="10.3076923076923" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.3846153846154" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.3076923076923" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.53846153846154" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.9230769230769" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.53846153846154" style="1" customWidth="1"/>
-    <col min="11" max="16381" width="6" style="1" customWidth="1"/>
-    <col min="16382" max="16384" width="6" style="1"/>
+    <col min="7" max="7" width="9.53846153846154" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.9230769230769" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5384615384615" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.9230769230769" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.53846153846154" style="1" customWidth="1"/>
+    <col min="12" max="16382" width="6" style="1" customWidth="1"/>
+    <col min="16383" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1" spans="1:10">
+    <row r="1" ht="16.15" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2078,8 +2086,9 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="84" spans="1:10">
+    <row r="2" ht="84" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -2096,8 +2105,9 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
-    <row r="3" ht="16.8" spans="1:10">
+    <row r="3" ht="16.8" spans="1:11">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -2126,41 +2136,47 @@
       <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="K3" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" ht="16.8" spans="1:10">
+    <row r="4" ht="16.8" spans="1:11">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:10">
+    <row r="5" ht="16.8" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2170,38 +2186,42 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
-    <row r="6" ht="16.8" spans="1:10">
+    <row r="6" ht="16.8" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:10">
+    <row r="7" ht="16.8" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10">
@@ -2220,6 +2240,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
         <v>0</v>
       </c>
     </row>

--- a/global/CrystalAttRepo.xlsx
+++ b/global/CrystalAttRepo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="31340" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="CrystalAttRepo" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,52 @@
 1: 副属性</t>
   </si>
   <si>
+    <t xml:space="preserve">0 攻击力
+1 护甲
+2 总伤害加成
+3 暴击值
+4 暴击倍数加层
+5 治疗强度
+6 真实伤害
+7 战场移动速度
+8 时间槽速度
+9 技能效果命中
+10 技能效果抵抗
+11 生命值上限
+12 当前生命值
+13 蓝量上限
+14 当前蓝量
+15 mp恢复值
+16 怒气值
+17 命中
+18 闪避
+19 物理系伤害加成
+20 地系伤害加成
+21 水系伤害加成
+22 火系伤害加成
+23 风系伤害加成
+24 时系伤害加成
+25 空系伤害加成
+26 幻系伤害加成
+27 光系伤害加成
+28 暗系伤害加成
+29 物理系伤害抗性
+30 地系伤害抗性
+31 水系伤害抗性
+32 火系伤害抗性
+33 风系伤害抗性
+34 时系伤害抗性
+35 空系伤害抗性
+36 幻系伤害抗性
+37 光系伤害抗性
+38 暗系伤害抗性
+39 各系伤害抗性
+</t>
+  </si>
+  <si>
+    <t>对应att表</t>
+  </si>
+  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -51,13 +97,10 @@
     <t>attType</t>
   </si>
   <si>
-    <t>attValueMin</t>
-  </si>
-  <si>
-    <t>attValueMax</t>
-  </si>
-  <si>
-    <t>attGrowRatio</t>
+    <t>attValue</t>
+  </si>
+  <si>
+    <t>attGrowRatioId</t>
   </si>
   <si>
     <t>attWeight</t>
@@ -78,10 +121,7 @@
     <t>属性类型</t>
   </si>
   <si>
-    <t>属性值最小值</t>
-  </si>
-  <si>
-    <t>属性值最大值</t>
+    <t>基础属性值</t>
   </si>
   <si>
     <t>属性成长率</t>
@@ -104,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -130,25 +170,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,18 +185,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,17 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,30 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,15 +248,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,9 +268,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,19 +342,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,163 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,15 +626,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -616,21 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -647,16 +663,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,151 +696,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2051,10 +2091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
@@ -2064,16 +2104,15 @@
     <col min="3" max="4" width="10.3076923076923" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.3846153846154" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.3076923076923" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.53846153846154" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.2307692307692" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.9230769230769" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5384615384615" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.9230769230769" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.53846153846154" style="1" customWidth="1"/>
-    <col min="12" max="16382" width="6" style="1" customWidth="1"/>
-    <col min="16383" max="16384" width="6" style="1"/>
+    <col min="9" max="9" width="14.6153846153846" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.53846153846154" style="1" customWidth="1"/>
+    <col min="11" max="16381" width="6" style="1" customWidth="1"/>
+    <col min="16382" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1" spans="1:11">
+    <row r="1" ht="16.15" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2086,9 +2125,8 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="84" spans="1:11">
+    <row r="2" ht="408" customHeight="1" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -2101,79 +2139,76 @@
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
     </row>
-    <row r="3" ht="16.8" spans="1:11">
+    <row r="3" ht="16.8" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="1:11">
+    <row r="4" ht="16.8" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:11">
+    <row r="5" ht="16.8" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
         <v>23</v>
@@ -2186,9 +2221,8 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
     </row>
-    <row r="6" ht="16.8" spans="1:11">
+    <row r="6" ht="16.8" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
         <v>24</v>
@@ -2217,11 +2251,8 @@
       <c r="J6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="7" ht="16.8" spans="1:11">
+    <row r="7" ht="16.8" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10">
@@ -2240,9 +2271,6 @@
         <v>0</v>
       </c>
       <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
         <v>0</v>
       </c>
     </row>

--- a/global/CrystalAttRepo.xlsx
+++ b/global/CrystalAttRepo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -33,47 +33,7 @@
 1: 副属性</t>
   </si>
   <si>
-    <t xml:space="preserve">0 攻击力
-1 护甲
-2 总伤害加成
-3 暴击值
-4 暴击倍数加层
-5 治疗强度
-6 真实伤害
-7 战场移动速度
-8 时间槽速度
-9 技能效果命中
-10 技能效果抵抗
-11 生命值上限
-12 当前生命值
-13 蓝量上限
-14 当前蓝量
-15 mp恢复值
-16 怒气值
-17 命中
-18 闪避
-19 物理系伤害加成
-20 地系伤害加成
-21 水系伤害加成
-22 火系伤害加成
-23 风系伤害加成
-24 时系伤害加成
-25 空系伤害加成
-26 幻系伤害加成
-27 光系伤害加成
-28 暗系伤害加成
-29 物理系伤害抗性
-30 地系伤害抗性
-31 水系伤害抗性
-32 火系伤害抗性
-33 风系伤害抗性
-34 时系伤害抗性
-35 空系伤害抗性
-36 幻系伤害抗性
-37 光系伤害抗性
-38 暗系伤害抗性
-39 各系伤害抗性
-</t>
+    <t>加成属性id</t>
   </si>
   <si>
     <t>对应att表</t>
@@ -94,10 +54,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>attType</t>
-  </si>
-  <si>
-    <t>attValue</t>
+    <t>attId</t>
   </si>
   <si>
     <t>attGrowRatioId</t>
@@ -118,10 +75,7 @@
     <t>属性库类型</t>
   </si>
   <si>
-    <t>属性类型</t>
-  </si>
-  <si>
-    <t>基础属性值</t>
+    <t>属性id</t>
   </si>
   <si>
     <t>属性成长率</t>
@@ -2091,10 +2045,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="N7" sqref="N7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
@@ -2105,14 +2059,13 @@
     <col min="5" max="5" width="23.3846153846154" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.3076923076923" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.2307692307692" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.9230769230769" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6153846153846" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.53846153846154" style="1" customWidth="1"/>
-    <col min="11" max="16381" width="6" style="1" customWidth="1"/>
-    <col min="16382" max="16384" width="6" style="1"/>
+    <col min="8" max="8" width="14.6153846153846" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.53846153846154" style="1" customWidth="1"/>
+    <col min="10" max="16380" width="6" style="1" customWidth="1"/>
+    <col min="16381" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1" spans="1:10">
+    <row r="1" ht="16.15" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2124,9 +2077,8 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
     </row>
-    <row r="2" ht="408" customHeight="1" spans="1:10">
+    <row r="2" ht="84" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -2142,13 +2094,12 @@
       <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
-    <row r="3" ht="16.8" spans="1:10">
+    <row r="3" ht="16.8" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -2174,44 +2125,38 @@
       <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" ht="16.8" spans="1:10">
+    <row r="4" ht="16.8" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" ht="16.8" spans="1:10">
+    <row r="5" ht="16.8" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2220,39 +2165,35 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
     </row>
-    <row r="6" ht="16.8" spans="1:10">
+    <row r="6" ht="16.8" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:10">
+    <row r="7" ht="16.8" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10">
@@ -2268,9 +2209,6 @@
         <v>0</v>
       </c>
       <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
         <v>0</v>
       </c>
     </row>

--- a/global/CrystalAttRepo.xlsx
+++ b/global/CrystalAttRepo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31340" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="CrystalAttRepo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -33,10 +33,12 @@
 1: 副属性</t>
   </si>
   <si>
-    <t>加成属性id</t>
-  </si>
-  <si>
-    <t>对应att表</t>
+    <t>固定值属性id
+对应att表</t>
+  </si>
+  <si>
+    <t>成长率属性id
+对应att表</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -91,6 +93,24 @@
   </si>
   <si>
     <t>int32</t>
+  </si>
+  <si>
+    <t>主属性位置1只有攻击力属性</t>
+  </si>
+  <si>
+    <t>主属性位置2只有生命值属性</t>
+  </si>
+  <si>
+    <t>主属性位置3只有防御力属性</t>
+  </si>
+  <si>
+    <t>主属性位置4百分比时速</t>
+  </si>
+  <si>
+    <t>主属性位置4百分比移速</t>
+  </si>
+  <si>
+    <t>主属性位置4治疗量</t>
   </si>
 </sst>
 </file>
@@ -99,9 +119,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -124,16 +144,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,61 +158,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -212,21 +184,6 @@
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,10 +202,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,7 +219,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +232,68 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -296,31 +316,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,151 +466,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +539,21 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right/>
@@ -541,38 +576,29 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFAAAAAA"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFAAAAAA"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFAAAAAA"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFAAAAAA"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFAAAAAA"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,6 +608,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +642,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -616,17 +681,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,188 +700,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -831,71 +857,73 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2043,24 +2071,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:O7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5384615384615" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.3076923076923" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.3846153846154" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3076923076923" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.2307692307692" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6153846153846" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.53846153846154" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.3083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.3833333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54166666666667" style="1" customWidth="1"/>
     <col min="10" max="16380" width="6" style="1" customWidth="1"/>
     <col min="16381" max="16384" width="6" style="1"/>
   </cols>
@@ -2078,138 +2106,269 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="84" spans="1:9">
+    <row r="2" ht="67.5" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="7"/>
     </row>
-    <row r="3" ht="16.8" spans="1:9">
+    <row r="3" ht="14.25" spans="1:9">
       <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="1:9">
+    <row r="4" ht="14.25" spans="1:9">
       <c r="A4" s="3"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:9">
+    <row r="5" ht="14.25" spans="1:9">
       <c r="A5" s="3"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
-    <row r="6" ht="16.8" spans="1:9">
-      <c r="A6" s="3"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:9">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="10">
+    <row r="7" ht="13.5" spans="1:9">
+      <c r="A7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14">
         <v>1</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="13">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="H7" s="13">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14">
         <v>0</v>
       </c>
-      <c r="I7" s="13">
+      <c r="G7" s="15">
+        <v>3001</v>
+      </c>
+      <c r="H7" s="15">
+        <v>3000</v>
+      </c>
+      <c r="I7" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14">
         <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3003</v>
+      </c>
+      <c r="H8" s="13">
+        <v>3002</v>
+      </c>
+      <c r="I8" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>3005</v>
+      </c>
+      <c r="H9" s="13">
+        <v>3004</v>
+      </c>
+      <c r="I9" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14">
+        <v>4</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>3007</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3006</v>
+      </c>
+      <c r="I10" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14">
+        <v>5</v>
+      </c>
+      <c r="D11" s="14">
+        <v>4</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3009</v>
+      </c>
+      <c r="H11" s="13">
+        <v>3008</v>
+      </c>
+      <c r="I11" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14">
+        <v>4</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>3011</v>
+      </c>
+      <c r="H12" s="13">
+        <v>3010</v>
+      </c>
+      <c r="I12" s="13">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/global/CrystalAttRepo.xlsx
+++ b/global/CrystalAttRepo.xlsx
@@ -14,19 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
     <t>0-5</t>
-  </si>
-  <si>
-    <t>0:白
-1:绿
-2:蓝
-3:紫
-4:橙</t>
   </si>
   <si>
     <t>0: 主属性
@@ -50,9 +43,6 @@
     <t>pos</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -69,9 +59,6 @@
   </si>
   <si>
     <t>晶石位置</t>
-  </si>
-  <si>
-    <t>晶石品质</t>
   </si>
   <si>
     <t>属性库类型</t>
@@ -118,8 +105,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -144,13 +131,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -160,7 +140,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,29 +169,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,8 +206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,9 +216,39 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,14 +267,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -262,38 +281,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -316,19 +303,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,85 +447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,78 +483,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -535,21 +522,6 @@
         <color indexed="10"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,9 +577,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,30 +658,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -692,163 +666,161 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -857,20 +829,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2073,27 +2042,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5416666666667" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.3083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.3833333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.2333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6166666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54166666666667" style="1" customWidth="1"/>
-    <col min="10" max="16380" width="6" style="1" customWidth="1"/>
-    <col min="16381" max="16384" width="6" style="1"/>
+    <col min="3" max="5" width="10.3083333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6166666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54166666666667" style="1" customWidth="1"/>
+    <col min="9" max="16379" width="6" style="1" customWidth="1"/>
+    <col min="16380" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1" spans="1:9">
+    <row r="1" ht="16.15" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2104,270 +2071,250 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="67.5" spans="1:9">
+    <row r="2" ht="27" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" ht="14.25" spans="1:9">
-      <c r="A3" s="3"/>
-      <c r="B3" s="8" t="s">
+    <row r="4" ht="14.25" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:8">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="1:8">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>3001</v>
+      </c>
+      <c r="G7" s="14">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3003</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3002</v>
+      </c>
+      <c r="H8" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13">
+        <v>3</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>3005</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3004</v>
+      </c>
+      <c r="H9" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13">
+        <v>4</v>
+      </c>
+      <c r="D10" s="13">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3007</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3006</v>
+      </c>
+      <c r="H10" s="12">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="3"/>
-      <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>20</v>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13">
+        <v>5</v>
+      </c>
+      <c r="D11" s="13">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>3009</v>
+      </c>
+      <c r="G11" s="12">
+        <v>3008</v>
+      </c>
+      <c r="H11" s="12">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" spans="1:9">
-      <c r="A7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13">
+        <v>6</v>
+      </c>
+      <c r="D12" s="13">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12">
         <v>0</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>3001</v>
-      </c>
-      <c r="H7" s="15">
-        <v>3000</v>
-      </c>
-      <c r="I7" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>3003</v>
-      </c>
-      <c r="H8" s="13">
-        <v>3002</v>
-      </c>
-      <c r="I8" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14">
-        <v>3</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>3005</v>
-      </c>
-      <c r="H9" s="13">
-        <v>3004</v>
-      </c>
-      <c r="I9" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14">
-        <v>4</v>
-      </c>
-      <c r="D10" s="14">
-        <v>4</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>3007</v>
-      </c>
-      <c r="H10" s="13">
-        <v>3006</v>
-      </c>
-      <c r="I10" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14">
-        <v>5</v>
-      </c>
-      <c r="D11" s="14">
-        <v>4</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <v>3009</v>
-      </c>
-      <c r="H11" s="13">
-        <v>3008</v>
-      </c>
-      <c r="I11" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14">
-        <v>6</v>
-      </c>
-      <c r="D12" s="14">
-        <v>4</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="F12" s="12">
         <v>3011</v>
       </c>
-      <c r="H12" s="13">
+      <c r="G12" s="12">
         <v>3010</v>
       </c>
-      <c r="I12" s="13">
+      <c r="H12" s="12">
         <v>30</v>
       </c>
     </row>

--- a/global/CrystalAttRepo.xlsx
+++ b/global/CrystalAttRepo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -98,6 +98,99 @@
   </si>
   <si>
     <t>主属性位置4治疗量</t>
+  </si>
+  <si>
+    <t>主属性位置5地伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置5水伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置5火伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置5风伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置5雷伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置5时伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置5空伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置5钢伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置5灭伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置6地伤害抗性</t>
+  </si>
+  <si>
+    <t>主属性位置6水伤害抗性</t>
+  </si>
+  <si>
+    <t>主属性位置6火伤害抗性</t>
+  </si>
+  <si>
+    <t>主属性位置6风伤害抗性</t>
+  </si>
+  <si>
+    <t>主属性位置6雷伤害抗性</t>
+  </si>
+  <si>
+    <t>主属性位置6时伤害抗性</t>
+  </si>
+  <si>
+    <t>主属性位置6空伤害抗性</t>
+  </si>
+  <si>
+    <t>主属性位置6钢伤害抗性</t>
+  </si>
+  <si>
+    <t>主属性位置6灭伤害抗性</t>
+  </si>
+  <si>
+    <t>副属性攻击力</t>
+  </si>
+  <si>
+    <t>副属性防御力</t>
+  </si>
+  <si>
+    <t>副属性生命值</t>
+  </si>
+  <si>
+    <t>副属性百分比攻击力</t>
+  </si>
+  <si>
+    <t>副属性百分比防御力</t>
+  </si>
+  <si>
+    <t>副属性百分比生命值</t>
+  </si>
+  <si>
+    <t>副属性效果命中</t>
+  </si>
+  <si>
+    <t>副属性效果抵抗</t>
+  </si>
+  <si>
+    <t>副属性总伤害加成</t>
+  </si>
+  <si>
+    <t>副属性暴击值</t>
+  </si>
+  <si>
+    <t>副属性暴击倍数</t>
+  </si>
+  <si>
+    <t>副属性百分比时速</t>
+  </si>
+  <si>
+    <t>副属性百分比移速</t>
   </si>
 </sst>
 </file>
@@ -105,12 +198,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -131,6 +224,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -138,9 +238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,14 +254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,18 +268,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,8 +290,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -214,9 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,14 +345,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,15 +360,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,14 +381,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -303,7 +403,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,25 +559,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,152 +587,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -575,37 +675,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,21 +714,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,7 +737,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,152 +803,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -841,6 +969,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2042,13 +2181,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="G31" sqref="G31:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5416666666667" style="1" customWidth="1"/>
@@ -2318,6 +2457,778 @@
         <v>30</v>
       </c>
     </row>
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17">
+        <v>7</v>
+      </c>
+      <c r="D13" s="16">
+        <v>5</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3059</v>
+      </c>
+      <c r="G13" s="15">
+        <v>3050</v>
+      </c>
+      <c r="H13" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20">
+        <v>8</v>
+      </c>
+      <c r="D14" s="19">
+        <v>5</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>3060</v>
+      </c>
+      <c r="G14" s="18">
+        <v>3051</v>
+      </c>
+      <c r="H14" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20">
+        <v>9</v>
+      </c>
+      <c r="D15" s="19">
+        <v>5</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>3061</v>
+      </c>
+      <c r="G15" s="18">
+        <v>3052</v>
+      </c>
+      <c r="H15" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19">
+        <v>5</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>3062</v>
+      </c>
+      <c r="G16" s="18">
+        <v>3053</v>
+      </c>
+      <c r="H16" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:8">
+      <c r="A17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20">
+        <v>11</v>
+      </c>
+      <c r="D17" s="19">
+        <v>5</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>3063</v>
+      </c>
+      <c r="G17" s="18">
+        <v>3054</v>
+      </c>
+      <c r="H17" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
+      <c r="A18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20">
+        <v>12</v>
+      </c>
+      <c r="D18" s="19">
+        <v>5</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>3064</v>
+      </c>
+      <c r="G18" s="18">
+        <v>3055</v>
+      </c>
+      <c r="H18" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20">
+        <v>13</v>
+      </c>
+      <c r="D19" s="19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>3065</v>
+      </c>
+      <c r="G19" s="18">
+        <v>3056</v>
+      </c>
+      <c r="H19" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20">
+        <v>14</v>
+      </c>
+      <c r="D20" s="19">
+        <v>5</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>3066</v>
+      </c>
+      <c r="G20" s="18">
+        <v>3057</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20">
+        <v>15</v>
+      </c>
+      <c r="D21" s="19">
+        <v>5</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>3067</v>
+      </c>
+      <c r="G21" s="18">
+        <v>3058</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
+      <c r="A22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20">
+        <v>16</v>
+      </c>
+      <c r="D22" s="19">
+        <v>6</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>3077</v>
+      </c>
+      <c r="G22" s="18">
+        <v>3068</v>
+      </c>
+      <c r="H22" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
+      <c r="A23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20">
+        <v>17</v>
+      </c>
+      <c r="D23" s="19">
+        <v>6</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>3078</v>
+      </c>
+      <c r="G23" s="18">
+        <v>3069</v>
+      </c>
+      <c r="H23" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
+      <c r="A24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20">
+        <v>18</v>
+      </c>
+      <c r="D24" s="19">
+        <v>6</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>3079</v>
+      </c>
+      <c r="G24" s="18">
+        <v>3070</v>
+      </c>
+      <c r="H24" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20">
+        <v>19</v>
+      </c>
+      <c r="D25" s="19">
+        <v>6</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>3080</v>
+      </c>
+      <c r="G25" s="18">
+        <v>3071</v>
+      </c>
+      <c r="H25" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:8">
+      <c r="A26" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20">
+        <v>20</v>
+      </c>
+      <c r="D26" s="19">
+        <v>6</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>3081</v>
+      </c>
+      <c r="G26" s="18">
+        <v>3072</v>
+      </c>
+      <c r="H26" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:8">
+      <c r="A27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20">
+        <v>21</v>
+      </c>
+      <c r="D27" s="19">
+        <v>6</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>3082</v>
+      </c>
+      <c r="G27" s="18">
+        <v>3073</v>
+      </c>
+      <c r="H27" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:8">
+      <c r="A28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20">
+        <v>22</v>
+      </c>
+      <c r="D28" s="19">
+        <v>6</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>3083</v>
+      </c>
+      <c r="G28" s="18">
+        <v>3074</v>
+      </c>
+      <c r="H28" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20">
+        <v>23</v>
+      </c>
+      <c r="D29" s="19">
+        <v>6</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>3084</v>
+      </c>
+      <c r="G29" s="18">
+        <v>3075</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:8">
+      <c r="A30" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20">
+        <v>24</v>
+      </c>
+      <c r="D30" s="19">
+        <v>6</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>3085</v>
+      </c>
+      <c r="G30" s="18">
+        <v>3076</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:8">
+      <c r="A31" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21">
+        <v>100</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
+      <c r="F31" s="18">
+        <v>3200</v>
+      </c>
+      <c r="G31" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:8">
+      <c r="A32" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22">
+        <v>101</v>
+      </c>
+      <c r="D32" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="22">
+        <v>1</v>
+      </c>
+      <c r="F32" s="18">
+        <v>3201</v>
+      </c>
+      <c r="G32" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:8">
+      <c r="A33" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22">
+        <v>102</v>
+      </c>
+      <c r="D33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1</v>
+      </c>
+      <c r="F33" s="18">
+        <v>3202</v>
+      </c>
+      <c r="G33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:8">
+      <c r="A34" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22">
+        <v>103</v>
+      </c>
+      <c r="D34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="22">
+        <v>1</v>
+      </c>
+      <c r="F34" s="18">
+        <v>3203</v>
+      </c>
+      <c r="G34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:8">
+      <c r="A35" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22">
+        <v>104</v>
+      </c>
+      <c r="D35" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="22">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18">
+        <v>3204</v>
+      </c>
+      <c r="G35" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:8">
+      <c r="A36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22">
+        <v>105</v>
+      </c>
+      <c r="D36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="22">
+        <v>1</v>
+      </c>
+      <c r="F36" s="18">
+        <v>3205</v>
+      </c>
+      <c r="G36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:8">
+      <c r="A37" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22">
+        <v>106</v>
+      </c>
+      <c r="D37" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="22">
+        <v>1</v>
+      </c>
+      <c r="F37" s="18">
+        <v>3206</v>
+      </c>
+      <c r="G37" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:8">
+      <c r="A38" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22">
+        <v>107</v>
+      </c>
+      <c r="D38" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="22">
+        <v>1</v>
+      </c>
+      <c r="F38" s="18">
+        <v>3207</v>
+      </c>
+      <c r="G38" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:8">
+      <c r="A39" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22">
+        <v>108</v>
+      </c>
+      <c r="D39" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="22">
+        <v>1</v>
+      </c>
+      <c r="F39" s="18">
+        <v>3208</v>
+      </c>
+      <c r="G39" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:8">
+      <c r="A40" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22">
+        <v>109</v>
+      </c>
+      <c r="D40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="22">
+        <v>1</v>
+      </c>
+      <c r="F40" s="18">
+        <v>3209</v>
+      </c>
+      <c r="G40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:8">
+      <c r="A41" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22">
+        <v>110</v>
+      </c>
+      <c r="D41" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="22">
+        <v>1</v>
+      </c>
+      <c r="F41" s="18">
+        <v>3210</v>
+      </c>
+      <c r="G41" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:8">
+      <c r="A42" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22">
+        <v>111</v>
+      </c>
+      <c r="D42" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="22">
+        <v>1</v>
+      </c>
+      <c r="F42" s="18">
+        <v>3211</v>
+      </c>
+      <c r="G42" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:8">
+      <c r="A43" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22">
+        <v>112</v>
+      </c>
+      <c r="D43" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="22">
+        <v>1</v>
+      </c>
+      <c r="F43" s="18">
+        <v>3212</v>
+      </c>
+      <c r="G43" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:26">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/global/CrystalAttRepo.xlsx
+++ b/global/CrystalAttRepo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="CrystalAttRepo" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="I22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+目前不开放</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="107">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>0-5</t>
+    <t>0-5，共6个</t>
   </si>
   <si>
     <t>0: 主属性
@@ -40,6 +72,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>pos</t>
   </si>
   <si>
@@ -58,6 +93,9 @@
     <t>导出字段描述</t>
   </si>
   <si>
+    <t>属性描述</t>
+  </si>
+  <si>
     <t>晶石位置</t>
   </si>
   <si>
@@ -82,6 +120,9 @@
     <t>int32</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>主属性位置1只有攻击力属性</t>
   </si>
   <si>
@@ -97,7 +138,13 @@
     <t>主属性位置4百分比移速</t>
   </si>
   <si>
-    <t>主属性位置4治疗量</t>
+    <t>主属性位置4百分比攻击力</t>
+  </si>
+  <si>
+    <t>主属性位置4百分比防御力</t>
+  </si>
+  <si>
+    <t>主属性位置4百分比生命值</t>
   </si>
   <si>
     <t>主属性位置5地伤害加成</t>
@@ -127,70 +174,202 @@
     <t>主属性位置5灭伤害加成</t>
   </si>
   <si>
-    <t>主属性位置6地伤害抗性</t>
-  </si>
-  <si>
-    <t>主属性位置6水伤害抗性</t>
-  </si>
-  <si>
-    <t>主属性位置6火伤害抗性</t>
-  </si>
-  <si>
-    <t>主属性位置6风伤害抗性</t>
-  </si>
-  <si>
-    <t>主属性位置6雷伤害抗性</t>
-  </si>
-  <si>
-    <t>主属性位置6时伤害抗性</t>
-  </si>
-  <si>
-    <t>主属性位置6空伤害抗性</t>
-  </si>
-  <si>
-    <t>主属性位置6钢伤害抗性</t>
-  </si>
-  <si>
-    <t>主属性位置6灭伤害抗性</t>
-  </si>
-  <si>
-    <t>副属性攻击力</t>
-  </si>
-  <si>
-    <t>副属性防御力</t>
-  </si>
-  <si>
-    <t>副属性生命值</t>
-  </si>
-  <si>
-    <t>副属性百分比攻击力</t>
-  </si>
-  <si>
-    <t>副属性百分比防御力</t>
-  </si>
-  <si>
-    <t>副属性百分比生命值</t>
-  </si>
-  <si>
-    <t>副属性效果命中</t>
-  </si>
-  <si>
-    <t>副属性效果抵抗</t>
-  </si>
-  <si>
-    <t>副属性总伤害加成</t>
-  </si>
-  <si>
-    <t>副属性暴击值</t>
-  </si>
-  <si>
-    <t>副属性暴击倍数</t>
-  </si>
-  <si>
-    <t>副属性百分比时速</t>
-  </si>
-  <si>
-    <t>副属性百分比移速</t>
+    <t>主属性位置5物理伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置5百分比攻击力</t>
+  </si>
+  <si>
+    <t>主属性位置5百分比防御力</t>
+  </si>
+  <si>
+    <t>主属性位置5百分比生命值</t>
+  </si>
+  <si>
+    <t>主属性位置6暴击</t>
+  </si>
+  <si>
+    <t>主属性位置6暴击倍数</t>
+  </si>
+  <si>
+    <t>主属性位置6百分比攻击力</t>
+  </si>
+  <si>
+    <t>主属性位置6百分比防御力</t>
+  </si>
+  <si>
+    <t>主属性位置6百分比生命值</t>
+  </si>
+  <si>
+    <t>主属性位置6百分比治疗量</t>
+  </si>
+  <si>
+    <t>副属性位置1攻击力</t>
+  </si>
+  <si>
+    <t>副属性位置1防御力</t>
+  </si>
+  <si>
+    <t>副属性位置1生命值</t>
+  </si>
+  <si>
+    <t>副属性位置1百分比攻击力</t>
+  </si>
+  <si>
+    <t>副属性位置1百分比防御力</t>
+  </si>
+  <si>
+    <t>副属性位置1百分比生命值</t>
+  </si>
+  <si>
+    <t>副属性位置1暴击值</t>
+  </si>
+  <si>
+    <t>副属性位置1暴击倍数</t>
+  </si>
+  <si>
+    <t>副属性位置1效果命中</t>
+  </si>
+  <si>
+    <t>副属性位置2攻击力</t>
+  </si>
+  <si>
+    <t>副属性位置2防御力</t>
+  </si>
+  <si>
+    <t>副属性位置2生命值</t>
+  </si>
+  <si>
+    <t>副属性位置2百分比攻击力</t>
+  </si>
+  <si>
+    <t>副属性位置2百分比防御力</t>
+  </si>
+  <si>
+    <t>副属性位置2百分比生命值</t>
+  </si>
+  <si>
+    <t>副属性位置2暴击值</t>
+  </si>
+  <si>
+    <t>副属性位置2暴击倍数</t>
+  </si>
+  <si>
+    <t>副属性位置2百分比时速</t>
+  </si>
+  <si>
+    <t>副属性位置3攻击力</t>
+  </si>
+  <si>
+    <t>副属性位置3防御力</t>
+  </si>
+  <si>
+    <t>副属性位置3生命值</t>
+  </si>
+  <si>
+    <t>副属性位置3百分比攻击力</t>
+  </si>
+  <si>
+    <t>副属性位置3百分比防御力</t>
+  </si>
+  <si>
+    <t>副属性位置3百分比生命值</t>
+  </si>
+  <si>
+    <t>副属性位置3暴击值</t>
+  </si>
+  <si>
+    <t>副属性位置3暴击倍数</t>
+  </si>
+  <si>
+    <t>副属性位置3百分比移速</t>
+  </si>
+  <si>
+    <t>副属性位置4攻击力</t>
+  </si>
+  <si>
+    <t>副属性位置4防御力</t>
+  </si>
+  <si>
+    <t>副属性位置4生命值</t>
+  </si>
+  <si>
+    <t>副属性位置4百分比攻击力</t>
+  </si>
+  <si>
+    <t>副属性位置4百分比防御力</t>
+  </si>
+  <si>
+    <t>副属性位置4百分比生命值</t>
+  </si>
+  <si>
+    <t>副属性位置4暴击值</t>
+  </si>
+  <si>
+    <t>副属性位置4暴击倍数</t>
+  </si>
+  <si>
+    <t>副属性位置4百分比回怒</t>
+  </si>
+  <si>
+    <t>副属性位置4百分比MP恢复</t>
+  </si>
+  <si>
+    <t>副属性位置5攻击力</t>
+  </si>
+  <si>
+    <t>副属性位置5防御力</t>
+  </si>
+  <si>
+    <t>副属性位置5生命值</t>
+  </si>
+  <si>
+    <t>副属性位置5百分比攻击力</t>
+  </si>
+  <si>
+    <t>副属性位置5百分比防御力</t>
+  </si>
+  <si>
+    <t>副属性位置5百分比生命值</t>
+  </si>
+  <si>
+    <t>副属性位置5暴击值</t>
+  </si>
+  <si>
+    <t>副属性位置5暴击倍数</t>
+  </si>
+  <si>
+    <t>副属性位置5效果抵抗</t>
+  </si>
+  <si>
+    <t>副属性位置6攻击力</t>
+  </si>
+  <si>
+    <t>副属性位置6防御力</t>
+  </si>
+  <si>
+    <t>副属性位置6生命值</t>
+  </si>
+  <si>
+    <t>副属性位置6百分比攻击力</t>
+  </si>
+  <si>
+    <t>副属性位置6百分比防御力</t>
+  </si>
+  <si>
+    <t>副属性位置6百分比生命值</t>
+  </si>
+  <si>
+    <t>副属性位置6暴击值</t>
+  </si>
+  <si>
+    <t>副属性位置6暴击倍数</t>
+  </si>
+  <si>
+    <t>副属性位置6百分比MP上限</t>
+  </si>
+  <si>
+    <t>副属性位置6百分比治疗量</t>
   </si>
 </sst>
 </file>
@@ -198,12 +377,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -225,7 +404,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -239,14 +436,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,60 +550,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -329,57 +579,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -403,31 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,13 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,85 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +659,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,24 +707,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -703,6 +911,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -718,17 +939,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,11 +983,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,17 +1015,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -803,152 +1024,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -971,14 +1192,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2181,25 +2406,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:G43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5416666666667" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.3083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.2333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54166666666667" style="1" customWidth="1"/>
-    <col min="9" max="16379" width="6" style="1" customWidth="1"/>
-    <col min="16380" max="16384" width="6" style="1"/>
+    <col min="3" max="3" width="10.3083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.3083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54166666666667" style="1" customWidth="1"/>
+    <col min="10" max="16380" width="6" style="1" customWidth="1"/>
+    <col min="16381" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1" spans="1:8">
+    <row r="1" ht="16.15" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2210,26 +2437,28 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" ht="27" spans="1:8">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" ht="27" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:8">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -2252,35 +2481,41 @@
       <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:8">
+      <c r="I3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2288,946 +2523,2308 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:8">
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="1:9">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
-        <v>0</v>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
         <v>3001</v>
       </c>
-      <c r="G7" s="14">
+      <c r="H7" s="14">
         <v>3000</v>
       </c>
-      <c r="H7" s="14">
+      <c r="I7" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:8">
+    <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="F8" s="12">
-        <v>3003</v>
-      </c>
       <c r="G8" s="12">
-        <v>3002</v>
-      </c>
-      <c r="H8" s="14">
+        <v>3011</v>
+      </c>
+      <c r="H8" s="12">
+        <v>3010</v>
+      </c>
+      <c r="I8" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:8">
+    <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13">
-        <v>3</v>
-      </c>
-      <c r="D9" s="13">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="F9" s="12">
-        <v>3005</v>
-      </c>
       <c r="G9" s="12">
-        <v>3004</v>
-      </c>
-      <c r="H9" s="14">
+        <v>3021</v>
+      </c>
+      <c r="H9" s="12">
+        <v>3020</v>
+      </c>
+      <c r="I9" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:8">
+    <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13">
-        <v>4</v>
-      </c>
-      <c r="D10" s="13">
-        <v>4</v>
-      </c>
-      <c r="E10" s="12">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="13">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="F10" s="12">
-        <v>3007</v>
-      </c>
       <c r="G10" s="12">
-        <v>3006</v>
+        <v>3031</v>
       </c>
       <c r="H10" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:8">
+        <v>3030</v>
+      </c>
+      <c r="I10" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13">
-        <v>5</v>
-      </c>
-      <c r="D11" s="13">
-        <v>4</v>
-      </c>
-      <c r="E11" s="12">
+        <v>31</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="F11" s="12">
-        <v>3009</v>
-      </c>
       <c r="G11" s="12">
-        <v>3008</v>
+        <v>3033</v>
       </c>
       <c r="H11" s="12">
+        <v>3032</v>
+      </c>
+      <c r="I11" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:8">
+    <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13">
-        <v>6</v>
-      </c>
-      <c r="D12" s="13">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3035</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3034</v>
+      </c>
+      <c r="I12" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="13">
+        <v>33</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>3037</v>
+      </c>
+      <c r="H13" s="15">
+        <v>3036</v>
+      </c>
+      <c r="I13" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="13">
+        <v>34</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="16">
+        <v>3</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>3039</v>
+      </c>
+      <c r="H14" s="15">
+        <v>3038</v>
+      </c>
+      <c r="I14" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16">
+        <v>40</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="15">
         <v>4</v>
       </c>
-      <c r="E12" s="12">
+      <c r="F15" s="15">
         <v>0</v>
       </c>
-      <c r="F12" s="12">
-        <v>3011</v>
-      </c>
-      <c r="G12" s="12">
-        <v>3010</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="G15" s="15">
+        <v>3059</v>
+      </c>
+      <c r="H15" s="15">
+        <v>3050</v>
+      </c>
+      <c r="I15" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16">
+        <v>41</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="15">
+        <v>4</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>3060</v>
+      </c>
+      <c r="H16" s="17">
+        <v>3051</v>
+      </c>
+      <c r="I16" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16">
+        <v>42</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="15">
+        <v>4</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>3061</v>
+      </c>
+      <c r="H17" s="17">
+        <v>3052</v>
+      </c>
+      <c r="I17" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16">
+        <v>43</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="15">
+        <v>4</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <v>3062</v>
+      </c>
+      <c r="H18" s="17">
+        <v>3053</v>
+      </c>
+      <c r="I18" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:9">
+      <c r="A19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16">
+        <v>44</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="15">
+        <v>4</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>3063</v>
+      </c>
+      <c r="H19" s="17">
+        <v>3054</v>
+      </c>
+      <c r="I19" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:9">
+      <c r="A20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16">
+        <v>45</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="15">
+        <v>4</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>3064</v>
+      </c>
+      <c r="H20" s="17">
+        <v>3055</v>
+      </c>
+      <c r="I20" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:9">
+      <c r="A21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16">
+        <v>46</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="15">
+        <v>4</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>3065</v>
+      </c>
+      <c r="H21" s="17">
+        <v>3056</v>
+      </c>
+      <c r="I21" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:9">
+      <c r="A22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16">
+        <v>47</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="15">
+        <v>4</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>3066</v>
+      </c>
+      <c r="H22" s="17">
+        <v>3057</v>
+      </c>
+      <c r="I22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16">
+        <v>48</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="15">
+        <v>4</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>3067</v>
+      </c>
+      <c r="H23" s="17">
+        <v>3058</v>
+      </c>
+      <c r="I23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="16">
+        <v>49</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="15">
+        <v>4</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>3069</v>
+      </c>
+      <c r="H24" s="19">
+        <v>3068</v>
+      </c>
+      <c r="I24" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="16">
+        <v>50</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="15">
+        <v>4</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>3071</v>
+      </c>
+      <c r="H25" s="19">
+        <v>3070</v>
+      </c>
+      <c r="I25" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="16">
+        <v>51</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="15">
+        <v>4</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>3073</v>
+      </c>
+      <c r="H26" s="19">
+        <v>3072</v>
+      </c>
+      <c r="I26" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:9">
+      <c r="A27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="16">
+        <v>52</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="15">
+        <v>4</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <v>3075</v>
+      </c>
+      <c r="H27" s="19">
+        <v>3074</v>
+      </c>
+      <c r="I27" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:9">
+      <c r="A28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="16">
+        <v>53</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="15">
+        <v>5</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <v>3077</v>
+      </c>
+      <c r="H28" s="19">
+        <v>3076</v>
+      </c>
+      <c r="I28" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:9">
+      <c r="A29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="16">
+        <v>54</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="15">
+        <v>5</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <v>3079</v>
+      </c>
+      <c r="H29" s="19">
+        <v>3078</v>
+      </c>
+      <c r="I29" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:9">
+      <c r="A30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="16">
+        <v>55</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="15">
+        <v>5</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3081</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3080</v>
+      </c>
+      <c r="I30" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="16">
+        <v>56</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="15">
+        <v>5</v>
+      </c>
+      <c r="F31" s="19">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
+        <v>3083</v>
+      </c>
+      <c r="H31" s="17">
+        <v>3082</v>
+      </c>
+      <c r="I31" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:9">
+      <c r="A32" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="16">
+        <v>57</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="15">
+        <v>5</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
+        <v>3085</v>
+      </c>
+      <c r="H32" s="17">
+        <v>3084</v>
+      </c>
+      <c r="I32" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:9">
+      <c r="A33" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16">
+        <v>58</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="15">
+        <v>5</v>
+      </c>
+      <c r="F33" s="19">
+        <v>0</v>
+      </c>
+      <c r="G33" s="19">
+        <v>3087</v>
+      </c>
+      <c r="H33" s="17">
+        <v>3086</v>
+      </c>
+      <c r="I33" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:9">
+      <c r="A34" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15">
+        <v>100</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1</v>
+      </c>
+      <c r="G34" s="17">
+        <v>3200</v>
+      </c>
+      <c r="H34" s="15">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:9">
+      <c r="A35" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="15">
+        <v>101</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>1</v>
+      </c>
+      <c r="G35" s="17">
+        <v>3201</v>
+      </c>
+      <c r="H35" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="15">
+        <v>102</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <v>1</v>
+      </c>
+      <c r="G36" s="17">
+        <v>3202</v>
+      </c>
+      <c r="H36" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I36" s="17">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17">
-        <v>7</v>
-      </c>
-      <c r="D13" s="16">
+    <row r="37" customHeight="1" spans="1:9">
+      <c r="A37" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="15">
+        <v>103</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>1</v>
+      </c>
+      <c r="G37" s="17">
+        <v>3203</v>
+      </c>
+      <c r="H37" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I37" s="17">
         <v>5</v>
       </c>
-      <c r="E13" s="15">
+    </row>
+    <row r="38" customHeight="1" spans="1:9">
+      <c r="A38" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="15">
+        <v>104</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="15">
         <v>0</v>
       </c>
-      <c r="F13" s="15">
-        <v>3059</v>
-      </c>
-      <c r="G13" s="15">
-        <v>3050</v>
-      </c>
-      <c r="H13" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20">
-        <v>8</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="F38" s="15">
+        <v>1</v>
+      </c>
+      <c r="G38" s="17">
+        <v>3204</v>
+      </c>
+      <c r="H38" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I38" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:9">
+      <c r="A39" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="15">
+        <v>105</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>1</v>
+      </c>
+      <c r="G39" s="17">
+        <v>3205</v>
+      </c>
+      <c r="H39" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I39" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:9">
+      <c r="A40" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="15">
+        <v>106</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15">
+        <v>1</v>
+      </c>
+      <c r="G40" s="17">
+        <v>3206</v>
+      </c>
+      <c r="H40" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I40" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:9">
+      <c r="A41" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="15">
+        <v>107</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15">
+        <v>1</v>
+      </c>
+      <c r="G41" s="17">
+        <v>3207</v>
+      </c>
+      <c r="H41" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I41" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:9">
+      <c r="A42" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="15">
+        <v>108</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
+        <v>1</v>
+      </c>
+      <c r="G42" s="17">
+        <v>3208</v>
+      </c>
+      <c r="H42" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I42" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:9">
+      <c r="A43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="15">
+        <v>109</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="21">
+        <v>1</v>
+      </c>
+      <c r="F43" s="22">
+        <v>1</v>
+      </c>
+      <c r="G43" s="17">
+        <v>3220</v>
+      </c>
+      <c r="H43" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:24">
+      <c r="A44" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="15">
+        <v>110</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="21">
+        <v>1</v>
+      </c>
+      <c r="F44" s="22">
+        <v>1</v>
+      </c>
+      <c r="G44" s="17">
+        <v>3221</v>
+      </c>
+      <c r="H44" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I44" s="17">
+        <v>10</v>
+      </c>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:9">
+      <c r="A45" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="15">
+        <v>111</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="21">
+        <v>1</v>
+      </c>
+      <c r="F45" s="22">
+        <v>1</v>
+      </c>
+      <c r="G45" s="17">
+        <v>3222</v>
+      </c>
+      <c r="H45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:9">
+      <c r="A46" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="15">
+        <v>112</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="21">
+        <v>1</v>
+      </c>
+      <c r="F46" s="22">
+        <v>1</v>
+      </c>
+      <c r="G46" s="17">
+        <v>3223</v>
+      </c>
+      <c r="H46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I46" s="17">
         <v>5</v>
       </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>3060</v>
-      </c>
-      <c r="G14" s="18">
-        <v>3051</v>
-      </c>
-      <c r="H14" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20">
-        <v>9</v>
-      </c>
-      <c r="D15" s="19">
+    </row>
+    <row r="47" customHeight="1" spans="1:9">
+      <c r="A47" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="15">
+        <v>113</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="21">
+        <v>1</v>
+      </c>
+      <c r="F47" s="22">
+        <v>1</v>
+      </c>
+      <c r="G47" s="17">
+        <v>3224</v>
+      </c>
+      <c r="H47" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:9">
+      <c r="A48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="15">
+        <v>114</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="21">
+        <v>1</v>
+      </c>
+      <c r="F48" s="22">
+        <v>1</v>
+      </c>
+      <c r="G48" s="17">
+        <v>3225</v>
+      </c>
+      <c r="H48" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I48" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:27">
+      <c r="A49" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="15">
+        <v>115</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="21">
+        <v>1</v>
+      </c>
+      <c r="F49" s="22">
+        <v>1</v>
+      </c>
+      <c r="G49" s="17">
+        <v>3226</v>
+      </c>
+      <c r="H49" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I49" s="17">
+        <v>10</v>
+      </c>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:9">
+      <c r="A50" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="15">
+        <v>116</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="21">
+        <v>1</v>
+      </c>
+      <c r="F50" s="22">
+        <v>1</v>
+      </c>
+      <c r="G50" s="17">
+        <v>3227</v>
+      </c>
+      <c r="H50" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I50" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:9">
+      <c r="A51" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="15">
+        <v>117</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="21">
+        <v>1</v>
+      </c>
+      <c r="F51" s="22">
+        <v>1</v>
+      </c>
+      <c r="G51" s="17">
+        <v>3228</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I51" s="22">
         <v>5</v>
       </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <v>3061</v>
-      </c>
-      <c r="G15" s="18">
-        <v>3052</v>
-      </c>
-      <c r="H15" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="18" t="s">
+    </row>
+    <row r="52" customHeight="1" spans="1:9">
+      <c r="A52" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="15">
+        <v>118</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="21">
+        <v>2</v>
+      </c>
+      <c r="F52" s="22">
+        <v>1</v>
+      </c>
+      <c r="G52" s="17">
+        <v>3240</v>
+      </c>
+      <c r="H52" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I52" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:9">
+      <c r="A53" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="15">
+        <v>119</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="21">
+        <v>2</v>
+      </c>
+      <c r="F53" s="22">
+        <v>1</v>
+      </c>
+      <c r="G53" s="17">
+        <v>3241</v>
+      </c>
+      <c r="H53" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I53" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:9">
+      <c r="A54" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="15">
+        <v>120</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="21">
+        <v>2</v>
+      </c>
+      <c r="F54" s="22">
+        <v>1</v>
+      </c>
+      <c r="G54" s="17">
+        <v>3242</v>
+      </c>
+      <c r="H54" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I54" s="17">
         <v>30</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20">
-        <v>10</v>
-      </c>
-      <c r="D16" s="19">
+    </row>
+    <row r="55" customHeight="1" spans="1:9">
+      <c r="A55" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="15">
+        <v>121</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="21">
+        <v>2</v>
+      </c>
+      <c r="F55" s="22">
+        <v>1</v>
+      </c>
+      <c r="G55" s="17">
+        <v>3243</v>
+      </c>
+      <c r="H55" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I55" s="17">
         <v>5</v>
       </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <v>3062</v>
-      </c>
-      <c r="G16" s="18">
-        <v>3053</v>
-      </c>
-      <c r="H16" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20">
-        <v>11</v>
-      </c>
-      <c r="D17" s="19">
+    </row>
+    <row r="56" customHeight="1" spans="1:9">
+      <c r="A56" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="15">
+        <v>122</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="21">
+        <v>2</v>
+      </c>
+      <c r="F56" s="22">
+        <v>1</v>
+      </c>
+      <c r="G56" s="17">
+        <v>3244</v>
+      </c>
+      <c r="H56" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I56" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:9">
+      <c r="A57" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="15">
+        <v>123</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="21">
+        <v>2</v>
+      </c>
+      <c r="F57" s="22">
+        <v>1</v>
+      </c>
+      <c r="G57" s="17">
+        <v>3245</v>
+      </c>
+      <c r="H57" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I57" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:9">
+      <c r="A58" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="15">
+        <v>124</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="21">
+        <v>2</v>
+      </c>
+      <c r="F58" s="22">
+        <v>1</v>
+      </c>
+      <c r="G58" s="17">
+        <v>3246</v>
+      </c>
+      <c r="H58" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I58" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:9">
+      <c r="A59" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="15">
+        <v>125</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="21">
+        <v>2</v>
+      </c>
+      <c r="F59" s="22">
+        <v>1</v>
+      </c>
+      <c r="G59" s="17">
+        <v>3247</v>
+      </c>
+      <c r="H59" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I59" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:9">
+      <c r="A60" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="15">
+        <v>126</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="21">
+        <v>2</v>
+      </c>
+      <c r="F60" s="22">
+        <v>1</v>
+      </c>
+      <c r="G60" s="17">
+        <v>3248</v>
+      </c>
+      <c r="H60" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I60" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:9">
+      <c r="A61" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="15">
+        <v>127</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="21">
+        <v>3</v>
+      </c>
+      <c r="F61" s="22">
+        <v>1</v>
+      </c>
+      <c r="G61" s="17">
+        <v>3260</v>
+      </c>
+      <c r="H61" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I61" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:9">
+      <c r="A62" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="15">
+        <v>128</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="21">
+        <v>3</v>
+      </c>
+      <c r="F62" s="22">
+        <v>1</v>
+      </c>
+      <c r="G62" s="17">
+        <v>3261</v>
+      </c>
+      <c r="H62" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I62" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:9">
+      <c r="A63" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="15">
+        <v>129</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="21">
+        <v>3</v>
+      </c>
+      <c r="F63" s="22">
+        <v>1</v>
+      </c>
+      <c r="G63" s="17">
+        <v>3262</v>
+      </c>
+      <c r="H63" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I63" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:9">
+      <c r="A64" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="15">
+        <v>130</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="21">
+        <v>3</v>
+      </c>
+      <c r="F64" s="22">
+        <v>1</v>
+      </c>
+      <c r="G64" s="17">
+        <v>3263</v>
+      </c>
+      <c r="H64" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I64" s="17">
         <v>5</v>
       </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
-        <v>3063</v>
-      </c>
-      <c r="G17" s="18">
-        <v>3054</v>
-      </c>
-      <c r="H17" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20">
-        <v>12</v>
-      </c>
-      <c r="D18" s="19">
+    </row>
+    <row r="65" customHeight="1" spans="1:9">
+      <c r="A65" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="15">
+        <v>131</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="21">
+        <v>3</v>
+      </c>
+      <c r="F65" s="22">
+        <v>1</v>
+      </c>
+      <c r="G65" s="17">
+        <v>3264</v>
+      </c>
+      <c r="H65" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I65" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:9">
+      <c r="A66" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="15">
+        <v>132</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="21">
+        <v>3</v>
+      </c>
+      <c r="F66" s="22">
+        <v>1</v>
+      </c>
+      <c r="G66" s="17">
+        <v>3265</v>
+      </c>
+      <c r="H66" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I66" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:9">
+      <c r="A67" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="15">
+        <v>133</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="21">
+        <v>3</v>
+      </c>
+      <c r="F67" s="22">
+        <v>1</v>
+      </c>
+      <c r="G67" s="17">
+        <v>3266</v>
+      </c>
+      <c r="H67" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I67" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:9">
+      <c r="A68" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="15">
+        <v>134</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="21">
+        <v>3</v>
+      </c>
+      <c r="F68" s="22">
+        <v>1</v>
+      </c>
+      <c r="G68" s="17">
+        <v>3267</v>
+      </c>
+      <c r="H68" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I68" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:9">
+      <c r="A69" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="15">
+        <v>135</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" s="21">
+        <v>3</v>
+      </c>
+      <c r="F69" s="22">
+        <v>1</v>
+      </c>
+      <c r="G69" s="17">
+        <v>3268</v>
+      </c>
+      <c r="H69" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I69" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:9">
+      <c r="A70" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="15">
+        <v>136</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="21">
+        <v>3</v>
+      </c>
+      <c r="F70" s="22">
+        <v>1</v>
+      </c>
+      <c r="G70" s="17">
+        <v>3269</v>
+      </c>
+      <c r="H70" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I70" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:9">
+      <c r="A71" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="15">
+        <v>137</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="21">
+        <v>4</v>
+      </c>
+      <c r="F71" s="22">
+        <v>1</v>
+      </c>
+      <c r="G71" s="17">
+        <v>3280</v>
+      </c>
+      <c r="H71" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I71" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:9">
+      <c r="A72" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="15">
+        <v>138</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="21">
+        <v>4</v>
+      </c>
+      <c r="F72" s="22">
+        <v>1</v>
+      </c>
+      <c r="G72" s="17">
+        <v>3281</v>
+      </c>
+      <c r="H72" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I72" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:9">
+      <c r="A73" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="15">
+        <v>139</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="21">
+        <v>4</v>
+      </c>
+      <c r="F73" s="22">
+        <v>1</v>
+      </c>
+      <c r="G73" s="17">
+        <v>3282</v>
+      </c>
+      <c r="H73" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I73" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:9">
+      <c r="A74" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="15">
+        <v>140</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="21">
+        <v>4</v>
+      </c>
+      <c r="F74" s="22">
+        <v>1</v>
+      </c>
+      <c r="G74" s="17">
+        <v>3283</v>
+      </c>
+      <c r="H74" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I74" s="17">
         <v>5</v>
       </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>3064</v>
-      </c>
-      <c r="G18" s="18">
-        <v>3055</v>
-      </c>
-      <c r="H18" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20">
-        <v>13</v>
-      </c>
-      <c r="D19" s="19">
+    </row>
+    <row r="75" customHeight="1" spans="1:9">
+      <c r="A75" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="15">
+        <v>141</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="21">
+        <v>4</v>
+      </c>
+      <c r="F75" s="22">
+        <v>1</v>
+      </c>
+      <c r="G75" s="17">
+        <v>3284</v>
+      </c>
+      <c r="H75" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I75" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:9">
+      <c r="A76" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="15">
+        <v>142</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="21">
+        <v>4</v>
+      </c>
+      <c r="F76" s="22">
+        <v>1</v>
+      </c>
+      <c r="G76" s="17">
+        <v>3285</v>
+      </c>
+      <c r="H76" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I76" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:9">
+      <c r="A77" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="15">
+        <v>143</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="21">
+        <v>4</v>
+      </c>
+      <c r="F77" s="22">
+        <v>1</v>
+      </c>
+      <c r="G77" s="17">
+        <v>3286</v>
+      </c>
+      <c r="H77" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I77" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:9">
+      <c r="A78" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="15">
+        <v>144</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="21">
+        <v>4</v>
+      </c>
+      <c r="F78" s="22">
+        <v>1</v>
+      </c>
+      <c r="G78" s="17">
+        <v>3287</v>
+      </c>
+      <c r="H78" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I78" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:9">
+      <c r="A79" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="15">
+        <v>145</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="21">
+        <v>4</v>
+      </c>
+      <c r="F79" s="22">
+        <v>1</v>
+      </c>
+      <c r="G79" s="17">
+        <v>3288</v>
+      </c>
+      <c r="H79" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I79" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:9">
+      <c r="A80" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="15">
+        <v>146</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="21">
         <v>5</v>
       </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
-        <v>3065</v>
-      </c>
-      <c r="G19" s="18">
-        <v>3056</v>
-      </c>
-      <c r="H19" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20">
-        <v>14</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="F80" s="22">
+        <v>1</v>
+      </c>
+      <c r="G80" s="17">
+        <v>3300</v>
+      </c>
+      <c r="H80" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I80" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:9">
+      <c r="A81" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="15">
+        <v>147</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="21">
         <v>5</v>
       </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <v>3066</v>
-      </c>
-      <c r="G20" s="18">
-        <v>3057</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20">
+      <c r="F81" s="22">
+        <v>1</v>
+      </c>
+      <c r="G81" s="17">
+        <v>3301</v>
+      </c>
+      <c r="H81" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I81" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:9">
+      <c r="A82" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="15">
+        <v>148</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" s="21">
+        <v>5</v>
+      </c>
+      <c r="F82" s="22">
+        <v>1</v>
+      </c>
+      <c r="G82" s="17">
+        <v>3302</v>
+      </c>
+      <c r="H82" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I82" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:9">
+      <c r="A83" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="15">
+        <v>149</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="21">
+        <v>5</v>
+      </c>
+      <c r="F83" s="22">
+        <v>1</v>
+      </c>
+      <c r="G83" s="17">
+        <v>3303</v>
+      </c>
+      <c r="H83" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I83" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:9">
+      <c r="A84" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="15">
+        <v>150</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" s="21">
+        <v>5</v>
+      </c>
+      <c r="F84" s="22">
+        <v>1</v>
+      </c>
+      <c r="G84" s="17">
+        <v>3304</v>
+      </c>
+      <c r="H84" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I84" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:9">
+      <c r="A85" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="15">
+        <v>151</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85" s="21">
+        <v>5</v>
+      </c>
+      <c r="F85" s="22">
+        <v>1</v>
+      </c>
+      <c r="G85" s="17">
+        <v>3305</v>
+      </c>
+      <c r="H85" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I85" s="17">
         <v>15</v>
       </c>
-      <c r="D21" s="19">
+    </row>
+    <row r="86" customHeight="1" spans="1:9">
+      <c r="A86" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="15">
+        <v>152</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="21">
         <v>5</v>
       </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <v>3067</v>
-      </c>
-      <c r="G21" s="18">
-        <v>3058</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20">
-        <v>16</v>
-      </c>
-      <c r="D22" s="19">
-        <v>6</v>
-      </c>
-      <c r="E22" s="19">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>3077</v>
-      </c>
-      <c r="G22" s="18">
-        <v>3068</v>
-      </c>
-      <c r="H22" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20">
-        <v>17</v>
-      </c>
-      <c r="D23" s="19">
-        <v>6</v>
-      </c>
-      <c r="E23" s="19">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>3078</v>
-      </c>
-      <c r="G23" s="18">
-        <v>3069</v>
-      </c>
-      <c r="H23" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20">
-        <v>18</v>
-      </c>
-      <c r="D24" s="19">
-        <v>6</v>
-      </c>
-      <c r="E24" s="19">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
-        <v>3079</v>
-      </c>
-      <c r="G24" s="18">
-        <v>3070</v>
-      </c>
-      <c r="H24" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20">
-        <v>19</v>
-      </c>
-      <c r="D25" s="19">
-        <v>6</v>
-      </c>
-      <c r="E25" s="19">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <v>3080</v>
-      </c>
-      <c r="G25" s="18">
-        <v>3071</v>
-      </c>
-      <c r="H25" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20">
+      <c r="F86" s="22">
+        <v>1</v>
+      </c>
+      <c r="G86" s="17">
+        <v>3306</v>
+      </c>
+      <c r="H86" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I86" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:9">
+      <c r="A87" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="15">
+        <v>153</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="21">
+        <v>5</v>
+      </c>
+      <c r="F87" s="22">
+        <v>1</v>
+      </c>
+      <c r="G87" s="17">
+        <v>3307</v>
+      </c>
+      <c r="H87" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I87" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:9">
+      <c r="A88" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="15">
+        <v>154</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" s="21">
+        <v>5</v>
+      </c>
+      <c r="F88" s="22">
+        <v>1</v>
+      </c>
+      <c r="G88" s="17">
+        <v>3308</v>
+      </c>
+      <c r="H88" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I88" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:9">
+      <c r="A89" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="15">
+        <v>155</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E89" s="21">
+        <v>5</v>
+      </c>
+      <c r="F89" s="22">
+        <v>1</v>
+      </c>
+      <c r="G89" s="17">
+        <v>3309</v>
+      </c>
+      <c r="H89" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I89" s="22">
         <v>20</v>
       </c>
-      <c r="D26" s="19">
-        <v>6</v>
-      </c>
-      <c r="E26" s="19">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>3081</v>
-      </c>
-      <c r="G26" s="18">
-        <v>3072</v>
-      </c>
-      <c r="H26" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20">
-        <v>21</v>
-      </c>
-      <c r="D27" s="19">
-        <v>6</v>
-      </c>
-      <c r="E27" s="19">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <v>3082</v>
-      </c>
-      <c r="G27" s="18">
-        <v>3073</v>
-      </c>
-      <c r="H27" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20">
-        <v>22</v>
-      </c>
-      <c r="D28" s="19">
-        <v>6</v>
-      </c>
-      <c r="E28" s="19">
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
-        <v>3083</v>
-      </c>
-      <c r="G28" s="18">
-        <v>3074</v>
-      </c>
-      <c r="H28" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20">
-        <v>23</v>
-      </c>
-      <c r="D29" s="19">
-        <v>6</v>
-      </c>
-      <c r="E29" s="19">
-        <v>0</v>
-      </c>
-      <c r="F29" s="18">
-        <v>3084</v>
-      </c>
-      <c r="G29" s="18">
-        <v>3075</v>
-      </c>
-      <c r="H29" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20">
-        <v>24</v>
-      </c>
-      <c r="D30" s="19">
-        <v>6</v>
-      </c>
-      <c r="E30" s="19">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
-        <v>3085</v>
-      </c>
-      <c r="G30" s="18">
-        <v>3076</v>
-      </c>
-      <c r="H30" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21">
-        <v>100</v>
-      </c>
-      <c r="D31" s="21">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="21">
-        <v>1</v>
-      </c>
-      <c r="F31" s="18">
-        <v>3200</v>
-      </c>
-      <c r="G31" s="21">
-        <v>-1</v>
-      </c>
-      <c r="H31" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22">
-        <v>101</v>
-      </c>
-      <c r="D32" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="22">
-        <v>1</v>
-      </c>
-      <c r="F32" s="18">
-        <v>3201</v>
-      </c>
-      <c r="G32" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H32" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:8">
-      <c r="A33" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22">
-        <v>102</v>
-      </c>
-      <c r="D33" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="22">
-        <v>1</v>
-      </c>
-      <c r="F33" s="18">
-        <v>3202</v>
-      </c>
-      <c r="G33" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H33" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22">
-        <v>103</v>
-      </c>
-      <c r="D34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="22">
-        <v>1</v>
-      </c>
-      <c r="F34" s="18">
-        <v>3203</v>
-      </c>
-      <c r="G34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H34" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:8">
-      <c r="A35" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22">
-        <v>104</v>
-      </c>
-      <c r="D35" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="22">
-        <v>1</v>
-      </c>
-      <c r="F35" s="18">
-        <v>3204</v>
-      </c>
-      <c r="G35" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H35" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22">
-        <v>105</v>
-      </c>
-      <c r="D36" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E36" s="22">
-        <v>1</v>
-      </c>
-      <c r="F36" s="18">
-        <v>3205</v>
-      </c>
-      <c r="G36" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H36" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22">
-        <v>106</v>
-      </c>
-      <c r="D37" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E37" s="22">
-        <v>1</v>
-      </c>
-      <c r="F37" s="18">
-        <v>3206</v>
-      </c>
-      <c r="G37" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H37" s="22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22">
-        <v>107</v>
-      </c>
-      <c r="D38" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E38" s="22">
-        <v>1</v>
-      </c>
-      <c r="F38" s="18">
-        <v>3207</v>
-      </c>
-      <c r="G38" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H38" s="22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:8">
-      <c r="A39" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22">
-        <v>108</v>
-      </c>
-      <c r="D39" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="22">
-        <v>1</v>
-      </c>
-      <c r="F39" s="18">
-        <v>3208</v>
-      </c>
-      <c r="G39" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H39" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22">
-        <v>109</v>
-      </c>
-      <c r="D40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E40" s="22">
-        <v>1</v>
-      </c>
-      <c r="F40" s="18">
-        <v>3209</v>
-      </c>
-      <c r="G40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H40" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:8">
-      <c r="A41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22">
-        <v>110</v>
-      </c>
-      <c r="D41" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="22">
-        <v>1</v>
-      </c>
-      <c r="F41" s="18">
-        <v>3210</v>
-      </c>
-      <c r="G41" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22">
-        <v>111</v>
-      </c>
-      <c r="D42" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E42" s="22">
-        <v>1</v>
-      </c>
-      <c r="F42" s="18">
-        <v>3211</v>
-      </c>
-      <c r="G42" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H42" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22">
-        <v>112</v>
-      </c>
-      <c r="D43" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E43" s="22">
-        <v>1</v>
-      </c>
-      <c r="F43" s="18">
-        <v>3212</v>
-      </c>
-      <c r="G43" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H43" s="22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:26">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3235,5 +4832,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/global/CrystalAttRepo.xlsx
+++ b/global/CrystalAttRepo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="CrystalAttRepo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="I22" authorId="0">
+    <comment ref="I21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,12 +46,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>0-5，共6个</t>
+    <t>0-4，共5个</t>
   </si>
   <si>
     <t>0: 主属性
@@ -129,13 +129,49 @@
     <t>主属性位置2只有生命值属性</t>
   </si>
   <si>
-    <t>主属性位置3只有防御力属性</t>
-  </si>
-  <si>
-    <t>主属性位置4百分比时速</t>
-  </si>
-  <si>
-    <t>主属性位置4百分比移速</t>
+    <t>主属性位置3百分比时速</t>
+  </si>
+  <si>
+    <t>主属性位置3百分比移速</t>
+  </si>
+  <si>
+    <t>主属性位置3百分比攻击力</t>
+  </si>
+  <si>
+    <t>主属性位置3百分比防御力</t>
+  </si>
+  <si>
+    <t>主属性位置3百分比生命值</t>
+  </si>
+  <si>
+    <t>主属性位置4地伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置4水伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置4火伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置4风伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置4雷伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置4时伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置4空伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置4钢伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置4灭伤害加成</t>
+  </si>
+  <si>
+    <t>主属性位置4物理伤害加成</t>
   </si>
   <si>
     <t>主属性位置4百分比攻击力</t>
@@ -147,34 +183,10 @@
     <t>主属性位置4百分比生命值</t>
   </si>
   <si>
-    <t>主属性位置5地伤害加成</t>
-  </si>
-  <si>
-    <t>主属性位置5水伤害加成</t>
-  </si>
-  <si>
-    <t>主属性位置5火伤害加成</t>
-  </si>
-  <si>
-    <t>主属性位置5风伤害加成</t>
-  </si>
-  <si>
-    <t>主属性位置5雷伤害加成</t>
-  </si>
-  <si>
-    <t>主属性位置5时伤害加成</t>
-  </si>
-  <si>
-    <t>主属性位置5空伤害加成</t>
-  </si>
-  <si>
-    <t>主属性位置5钢伤害加成</t>
-  </si>
-  <si>
-    <t>主属性位置5灭伤害加成</t>
-  </si>
-  <si>
-    <t>主属性位置5物理伤害加成</t>
+    <t>主属性位置5暴击</t>
+  </si>
+  <si>
+    <t>主属性位置5暴击倍数</t>
   </si>
   <si>
     <t>主属性位置5百分比攻击力</t>
@@ -186,22 +198,7 @@
     <t>主属性位置5百分比生命值</t>
   </si>
   <si>
-    <t>主属性位置6暴击</t>
-  </si>
-  <si>
-    <t>主属性位置6暴击倍数</t>
-  </si>
-  <si>
-    <t>主属性位置6百分比攻击力</t>
-  </si>
-  <si>
-    <t>主属性位置6百分比防御力</t>
-  </si>
-  <si>
-    <t>主属性位置6百分比生命值</t>
-  </si>
-  <si>
-    <t>主属性位置6百分比治疗量</t>
+    <t>主属性位置5百分比治疗量</t>
   </si>
   <si>
     <t>副属性位置1攻击力</t>
@@ -342,34 +339,7 @@
     <t>副属性位置5效果抵抗</t>
   </si>
   <si>
-    <t>副属性位置6攻击力</t>
-  </si>
-  <si>
-    <t>副属性位置6防御力</t>
-  </si>
-  <si>
-    <t>副属性位置6生命值</t>
-  </si>
-  <si>
-    <t>副属性位置6百分比攻击力</t>
-  </si>
-  <si>
-    <t>副属性位置6百分比防御力</t>
-  </si>
-  <si>
-    <t>副属性位置6百分比生命值</t>
-  </si>
-  <si>
-    <t>副属性位置6暴击值</t>
-  </si>
-  <si>
-    <t>副属性位置6暴击倍数</t>
-  </si>
-  <si>
-    <t>副属性位置6百分比MP上限</t>
-  </si>
-  <si>
-    <t>副属性位置6百分比治疗量</t>
+    <t>副属性位置5百分比治疗量</t>
   </si>
 </sst>
 </file>
@@ -377,8 +347,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -428,36 +398,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,7 +414,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -487,6 +436,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -494,17 +459,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,6 +483,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,11 +503,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,23 +518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,11 +534,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,55 +581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,37 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +623,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,25 +677,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,25 +701,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +895,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -950,10 +946,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -962,38 +956,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,163 +977,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1195,10 +1165,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2406,10 +2374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA89"/>
+  <dimension ref="A1:AA79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2612,7 +2580,7 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>26</v>
@@ -2620,17 +2588,17 @@
       <c r="E9" s="13">
         <v>2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>0</v>
       </c>
       <c r="G9" s="12">
-        <v>3021</v>
+        <v>3031</v>
       </c>
       <c r="H9" s="12">
-        <v>3020</v>
-      </c>
-      <c r="I9" s="14">
-        <v>100</v>
+        <v>3030</v>
+      </c>
+      <c r="I9" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -2639,25 +2607,25 @@
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="12">
         <v>0</v>
       </c>
       <c r="G10" s="12">
-        <v>3031</v>
+        <v>3033</v>
       </c>
       <c r="H10" s="12">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="I10" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -2666,51 +2634,51 @@
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="12">
         <v>0</v>
       </c>
       <c r="G11" s="12">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="H11" s="12">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="I11" s="12">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="13">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="15">
         <v>0</v>
       </c>
-      <c r="G12" s="12">
-        <v>3035</v>
-      </c>
-      <c r="H12" s="12">
-        <v>3034</v>
-      </c>
-      <c r="I12" s="12">
+      <c r="G12" s="15">
+        <v>3037</v>
+      </c>
+      <c r="H12" s="15">
+        <v>3036</v>
+      </c>
+      <c r="I12" s="15">
         <v>10</v>
       </c>
     </row>
@@ -2720,78 +2688,78 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="15">
         <v>0</v>
       </c>
       <c r="G13" s="15">
-        <v>3037</v>
+        <v>3039</v>
       </c>
       <c r="H13" s="15">
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="I13" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="13">
-        <v>34</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="16">
+        <v>40</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>3</v>
       </c>
       <c r="F14" s="15">
         <v>0</v>
       </c>
       <c r="G14" s="15">
-        <v>3039</v>
+        <v>3059</v>
       </c>
       <c r="H14" s="15">
-        <v>3038</v>
+        <v>3050</v>
       </c>
       <c r="I14" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="16">
-        <v>40</v>
-      </c>
-      <c r="D15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="15">
-        <v>4</v>
-      </c>
-      <c r="F15" s="15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="15">
-        <v>3059</v>
-      </c>
-      <c r="H15" s="15">
-        <v>3050</v>
-      </c>
-      <c r="I15" s="15">
+      <c r="G15" s="17">
+        <v>3060</v>
+      </c>
+      <c r="H15" s="17">
+        <v>3051</v>
+      </c>
+      <c r="I15" s="17">
         <v>10</v>
       </c>
     </row>
@@ -2801,22 +2769,22 @@
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="16">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="17">
         <v>0</v>
       </c>
       <c r="G16" s="17">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="H16" s="17">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="I16" s="17">
         <v>10</v>
@@ -2828,22 +2796,22 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="17">
         <v>0</v>
       </c>
       <c r="G17" s="17">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="H17" s="17">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="I17" s="17">
         <v>10</v>
@@ -2855,22 +2823,22 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="17">
         <v>0</v>
       </c>
       <c r="G18" s="17">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="H18" s="17">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="I18" s="17">
         <v>10</v>
@@ -2882,22 +2850,22 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="17">
         <v>0</v>
       </c>
       <c r="G19" s="17">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="H19" s="17">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="I19" s="17">
         <v>10</v>
@@ -2909,78 +2877,78 @@
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="16">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="17">
         <v>0</v>
       </c>
       <c r="G20" s="17">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="H20" s="17">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="I20" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="16">
-        <v>46</v>
-      </c>
-      <c r="D21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="17">
         <v>0</v>
       </c>
       <c r="G21" s="17">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="H21" s="17">
-        <v>3056</v>
-      </c>
-      <c r="I21" s="17">
-        <v>10</v>
+        <v>3057</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="16">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="17">
         <v>0</v>
       </c>
       <c r="G22" s="17">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="H22" s="17">
-        <v>3057</v>
-      </c>
-      <c r="I22" s="23">
+        <v>3058</v>
+      </c>
+      <c r="I22" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2988,80 +2956,80 @@
       <c r="A23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="16">
-        <v>48</v>
-      </c>
-      <c r="D23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="15">
-        <v>4</v>
-      </c>
-      <c r="F23" s="17">
+        <v>3</v>
+      </c>
+      <c r="F23" s="15">
         <v>0</v>
       </c>
       <c r="G23" s="17">
-        <v>3067</v>
-      </c>
-      <c r="H23" s="17">
-        <v>3058</v>
-      </c>
-      <c r="I23" s="23">
+        <v>3069</v>
+      </c>
+      <c r="H23" s="15">
+        <v>3068</v>
+      </c>
+      <c r="I23" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16">
+        <v>50</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="15">
+        <v>3</v>
+      </c>
+      <c r="F24" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="16">
-        <v>49</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="15">
-        <v>4</v>
-      </c>
-      <c r="F24" s="19">
-        <v>0</v>
-      </c>
       <c r="G24" s="17">
-        <v>3069</v>
-      </c>
-      <c r="H24" s="19">
-        <v>3068</v>
-      </c>
-      <c r="I24" s="19">
-        <v>10</v>
+        <v>3071</v>
+      </c>
+      <c r="H24" s="15">
+        <v>3070</v>
+      </c>
+      <c r="I24" s="15">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="17">
         <v>0</v>
       </c>
       <c r="G25" s="17">
-        <v>3071</v>
-      </c>
-      <c r="H25" s="19">
-        <v>3070</v>
-      </c>
-      <c r="I25" s="19">
+        <v>3073</v>
+      </c>
+      <c r="H25" s="15">
+        <v>3072</v>
+      </c>
+      <c r="I25" s="15">
         <v>12</v>
       </c>
     </row>
@@ -3069,227 +3037,227 @@
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="16">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="15">
-        <v>4</v>
-      </c>
-      <c r="F26" s="17">
+        <v>3</v>
+      </c>
+      <c r="F26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="17">
-        <v>3073</v>
-      </c>
-      <c r="H26" s="19">
-        <v>3072</v>
-      </c>
-      <c r="I26" s="19">
+        <v>3075</v>
+      </c>
+      <c r="H26" s="15">
+        <v>3074</v>
+      </c>
+      <c r="I26" s="15">
         <v>12</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="16">
-        <v>52</v>
-      </c>
-      <c r="D27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="15">
         <v>4</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="15">
         <v>0</v>
       </c>
       <c r="G27" s="17">
-        <v>3075</v>
-      </c>
-      <c r="H27" s="19">
-        <v>3074</v>
-      </c>
-      <c r="I27" s="19">
-        <v>12</v>
+        <v>3077</v>
+      </c>
+      <c r="H27" s="15">
+        <v>3076</v>
+      </c>
+      <c r="I27" s="15">
+        <v>10</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="16">
-        <v>53</v>
-      </c>
-      <c r="D28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="15">
-        <v>5</v>
-      </c>
-      <c r="F28" s="19">
+        <v>4</v>
+      </c>
+      <c r="F28" s="15">
         <v>0</v>
       </c>
       <c r="G28" s="17">
-        <v>3077</v>
-      </c>
-      <c r="H28" s="19">
-        <v>3076</v>
-      </c>
-      <c r="I28" s="19">
+        <v>3079</v>
+      </c>
+      <c r="H28" s="15">
+        <v>3078</v>
+      </c>
+      <c r="I28" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="16">
-        <v>54</v>
-      </c>
-      <c r="D29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="15">
-        <v>5</v>
-      </c>
-      <c r="F29" s="19">
+        <v>4</v>
+      </c>
+      <c r="F29" s="15">
         <v>0</v>
       </c>
-      <c r="G29" s="17">
-        <v>3079</v>
-      </c>
-      <c r="H29" s="19">
-        <v>3078</v>
-      </c>
-      <c r="I29" s="19">
+      <c r="G29" s="1">
+        <v>3081</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3080</v>
+      </c>
+      <c r="I29" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="19"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="16">
-        <v>55</v>
-      </c>
-      <c r="D30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="15">
-        <v>5</v>
-      </c>
-      <c r="F30" s="19">
+        <v>4</v>
+      </c>
+      <c r="F30" s="15">
         <v>0</v>
       </c>
-      <c r="G30" s="1">
-        <v>3081</v>
-      </c>
-      <c r="H30" s="1">
-        <v>3080</v>
-      </c>
-      <c r="I30" s="19">
+      <c r="G30" s="17">
+        <v>3083</v>
+      </c>
+      <c r="H30" s="17">
+        <v>3082</v>
+      </c>
+      <c r="I30" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="16">
-        <v>56</v>
-      </c>
-      <c r="D31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="15">
-        <v>5</v>
-      </c>
-      <c r="F31" s="19">
+        <v>4</v>
+      </c>
+      <c r="F31" s="15">
         <v>0</v>
       </c>
-      <c r="G31" s="17">
-        <v>3083</v>
+      <c r="G31" s="15">
+        <v>3085</v>
       </c>
       <c r="H31" s="17">
-        <v>3082</v>
-      </c>
-      <c r="I31" s="19">
+        <v>3084</v>
+      </c>
+      <c r="I31" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="16">
-        <v>57</v>
-      </c>
-      <c r="D32" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="15">
-        <v>5</v>
-      </c>
-      <c r="F32" s="19">
+        <v>4</v>
+      </c>
+      <c r="F32" s="15">
         <v>0</v>
       </c>
-      <c r="G32" s="19">
-        <v>3085</v>
+      <c r="G32" s="15">
+        <v>3087</v>
       </c>
       <c r="H32" s="17">
-        <v>3084</v>
-      </c>
-      <c r="I32" s="19">
+        <v>3086</v>
+      </c>
+      <c r="I32" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="16">
-        <v>58</v>
-      </c>
-      <c r="D33" s="20" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15">
+        <v>100</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="15">
-        <v>5</v>
-      </c>
-      <c r="F33" s="19">
         <v>0</v>
       </c>
-      <c r="G33" s="19">
-        <v>3087</v>
-      </c>
-      <c r="H33" s="17">
-        <v>3086</v>
-      </c>
-      <c r="I33" s="19">
+      <c r="F33" s="15">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17">
+        <v>3200</v>
+      </c>
+      <c r="H33" s="15">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="15">
-        <v>100</v>
-      </c>
-      <c r="D34" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="15">
@@ -3299,12 +3267,12 @@
         <v>1</v>
       </c>
       <c r="G34" s="17">
-        <v>3200</v>
-      </c>
-      <c r="H34" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I34" s="15">
+        <v>3201</v>
+      </c>
+      <c r="H34" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="17">
         <v>10</v>
       </c>
     </row>
@@ -3314,7 +3282,7 @@
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="15">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>52</v>
@@ -3326,13 +3294,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="17">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="H35" s="17">
         <v>-1</v>
       </c>
       <c r="I35" s="17">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:9">
@@ -3341,7 +3309,7 @@
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="15">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>53</v>
@@ -3353,13 +3321,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="17">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="H36" s="17">
         <v>-1</v>
       </c>
       <c r="I36" s="17">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:9">
@@ -3368,7 +3336,7 @@
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="15">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>54</v>
@@ -3380,13 +3348,13 @@
         <v>1</v>
       </c>
       <c r="G37" s="17">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="H37" s="17">
         <v>-1</v>
       </c>
       <c r="I37" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:9">
@@ -3395,7 +3363,7 @@
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>55</v>
@@ -3407,13 +3375,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="17">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="H38" s="17">
         <v>-1</v>
       </c>
       <c r="I38" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:9">
@@ -3422,7 +3390,7 @@
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="15">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>56</v>
@@ -3434,13 +3402,13 @@
         <v>1</v>
       </c>
       <c r="G39" s="17">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="H39" s="17">
         <v>-1</v>
       </c>
       <c r="I39" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:9">
@@ -3449,7 +3417,7 @@
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="15">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>57</v>
@@ -3461,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="17">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="H40" s="17">
         <v>-1</v>
@@ -3476,7 +3444,7 @@
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="15">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>58</v>
@@ -3488,110 +3456,110 @@
         <v>1</v>
       </c>
       <c r="G41" s="17">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="H41" s="17">
         <v>-1</v>
       </c>
       <c r="I41" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="15">
-        <v>108</v>
-      </c>
-      <c r="D42" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="15">
-        <v>0</v>
-      </c>
-      <c r="F42" s="15">
+      <c r="E42" s="20">
+        <v>1</v>
+      </c>
+      <c r="F42" s="17">
         <v>1</v>
       </c>
       <c r="G42" s="17">
-        <v>3208</v>
+        <v>3220</v>
       </c>
       <c r="H42" s="17">
         <v>-1</v>
       </c>
-      <c r="I42" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="15" t="s">
+      <c r="I42" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:24">
+      <c r="A43" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="15">
-        <v>109</v>
-      </c>
-      <c r="D43" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="21">
-        <v>1</v>
-      </c>
-      <c r="F43" s="22">
+      <c r="E43" s="20">
+        <v>1</v>
+      </c>
+      <c r="F43" s="17">
         <v>1</v>
       </c>
       <c r="G43" s="17">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H43" s="17">
         <v>-1</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:24">
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:9">
       <c r="A44" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="15">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="21">
-        <v>1</v>
-      </c>
-      <c r="F44" s="22">
+      <c r="E44" s="20">
+        <v>1</v>
+      </c>
+      <c r="F44" s="17">
         <v>1</v>
       </c>
       <c r="G44" s="17">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="H44" s="17">
         <v>-1</v>
       </c>
       <c r="I44" s="17">
-        <v>10</v>
-      </c>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="45" customHeight="1" spans="1:9">
       <c r="A45" s="17" t="s">
@@ -3599,25 +3567,25 @@
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="15">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="21">
-        <v>1</v>
-      </c>
-      <c r="F45" s="22">
+      <c r="E45" s="20">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17">
         <v>1</v>
       </c>
       <c r="G45" s="17">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="H45" s="17">
         <v>-1</v>
       </c>
       <c r="I45" s="17">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:9">
@@ -3626,25 +3594,25 @@
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="15">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="21">
-        <v>1</v>
-      </c>
-      <c r="F46" s="22">
+      <c r="E46" s="20">
+        <v>1</v>
+      </c>
+      <c r="F46" s="17">
         <v>1</v>
       </c>
       <c r="G46" s="17">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="H46" s="17">
         <v>-1</v>
       </c>
       <c r="I46" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:9">
@@ -3653,73 +3621,91 @@
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="15">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="21">
-        <v>1</v>
-      </c>
-      <c r="F47" s="22">
+      <c r="E47" s="20">
+        <v>1</v>
+      </c>
+      <c r="F47" s="17">
         <v>1</v>
       </c>
       <c r="G47" s="17">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="H47" s="17">
         <v>-1</v>
       </c>
       <c r="I47" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:27">
       <c r="A48" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="15">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="21">
-        <v>1</v>
-      </c>
-      <c r="F48" s="22">
+      <c r="E48" s="20">
+        <v>1</v>
+      </c>
+      <c r="F48" s="17">
         <v>1</v>
       </c>
       <c r="G48" s="17">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="H48" s="17">
         <v>-1</v>
       </c>
       <c r="I48" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:27">
+        <v>10</v>
+      </c>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:9">
       <c r="A49" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="15">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="21">
-        <v>1</v>
-      </c>
-      <c r="F49" s="22">
+      <c r="E49" s="20">
+        <v>1</v>
+      </c>
+      <c r="F49" s="17">
         <v>1</v>
       </c>
       <c r="G49" s="17">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="H49" s="17">
         <v>-1</v>
@@ -3727,24 +3713,6 @@
       <c r="I49" s="17">
         <v>10</v>
       </c>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
     </row>
     <row r="50" customHeight="1" spans="1:9">
       <c r="A50" s="17" t="s">
@@ -3752,78 +3720,78 @@
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="15">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="21">
-        <v>1</v>
-      </c>
-      <c r="F50" s="22">
+      <c r="E50" s="20">
+        <v>1</v>
+      </c>
+      <c r="F50" s="17">
         <v>1</v>
       </c>
       <c r="G50" s="17">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="H50" s="17">
         <v>-1</v>
       </c>
       <c r="I50" s="17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:9">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="15">
-        <v>117</v>
-      </c>
-      <c r="D51" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="21">
-        <v>1</v>
-      </c>
-      <c r="F51" s="22">
+      <c r="E51" s="20">
+        <v>2</v>
+      </c>
+      <c r="F51" s="17">
         <v>1</v>
       </c>
       <c r="G51" s="17">
-        <v>3228</v>
+        <v>3240</v>
       </c>
       <c r="H51" s="17">
         <v>-1</v>
       </c>
-      <c r="I51" s="22">
-        <v>5</v>
+      <c r="I51" s="15">
+        <v>10</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="17" t="s">
         <v>69</v>
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="15">
-        <v>118</v>
-      </c>
-      <c r="D52" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>2</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="17">
         <v>1</v>
       </c>
       <c r="G52" s="17">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="H52" s="17">
         <v>-1</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="17">
         <v>10</v>
       </c>
     </row>
@@ -3833,25 +3801,25 @@
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="15">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="20">
         <v>2</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="17">
         <v>1</v>
       </c>
       <c r="G53" s="17">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="H53" s="17">
         <v>-1</v>
       </c>
       <c r="I53" s="17">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:9">
@@ -3860,25 +3828,25 @@
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="15">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <v>2</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="17">
         <v>1</v>
       </c>
       <c r="G54" s="17">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="H54" s="17">
         <v>-1</v>
       </c>
       <c r="I54" s="17">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:9">
@@ -3887,25 +3855,25 @@
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="15">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="20">
         <v>2</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="17">
         <v>1</v>
       </c>
       <c r="G55" s="17">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="H55" s="17">
         <v>-1</v>
       </c>
       <c r="I55" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:9">
@@ -3914,25 +3882,25 @@
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="15">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="20">
         <v>2</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="17">
         <v>1</v>
       </c>
       <c r="G56" s="17">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="H56" s="17">
         <v>-1</v>
       </c>
       <c r="I56" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:9">
@@ -3941,25 +3909,25 @@
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="20">
         <v>2</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="17">
         <v>1</v>
       </c>
       <c r="G57" s="17">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="H57" s="17">
         <v>-1</v>
       </c>
       <c r="I57" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:9">
@@ -3968,19 +3936,19 @@
       </c>
       <c r="B58" s="17"/>
       <c r="C58" s="15">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="20">
         <v>2</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="17">
         <v>1</v>
       </c>
       <c r="G58" s="17">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="H58" s="17">
         <v>-1</v>
@@ -3995,78 +3963,78 @@
       </c>
       <c r="B59" s="17"/>
       <c r="C59" s="15">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="20">
         <v>2</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="17">
         <v>1</v>
       </c>
       <c r="G59" s="17">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="H59" s="17">
         <v>-1</v>
       </c>
       <c r="I59" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:9">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="15">
-        <v>126</v>
-      </c>
-      <c r="D60" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="21">
-        <v>2</v>
-      </c>
-      <c r="F60" s="22">
+      <c r="E60" s="20">
+        <v>3</v>
+      </c>
+      <c r="F60" s="17">
         <v>1</v>
       </c>
       <c r="G60" s="17">
-        <v>3248</v>
+        <v>3260</v>
       </c>
       <c r="H60" s="17">
         <v>-1</v>
       </c>
-      <c r="I60" s="22">
-        <v>20</v>
+      <c r="I60" s="15">
+        <v>10</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:9">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B61" s="17"/>
       <c r="C61" s="15">
-        <v>127</v>
-      </c>
-      <c r="D61" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="20">
         <v>3</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="17">
         <v>1</v>
       </c>
       <c r="G61" s="17">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="H61" s="17">
         <v>-1</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="17">
         <v>10</v>
       </c>
     </row>
@@ -4076,25 +4044,25 @@
       </c>
       <c r="B62" s="17"/>
       <c r="C62" s="15">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <v>3</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="17">
         <v>1</v>
       </c>
       <c r="G62" s="17">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="H62" s="17">
         <v>-1</v>
       </c>
       <c r="I62" s="17">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:9">
@@ -4103,25 +4071,25 @@
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="15">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="20">
         <v>3</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="17">
         <v>1</v>
       </c>
       <c r="G63" s="17">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="H63" s="17">
         <v>-1</v>
       </c>
       <c r="I63" s="17">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:9">
@@ -4130,25 +4098,25 @@
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="15">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="20">
         <v>3</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="17">
         <v>1</v>
       </c>
       <c r="G64" s="17">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="H64" s="17">
         <v>-1</v>
       </c>
       <c r="I64" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
@@ -4157,25 +4125,25 @@
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="15">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="20">
         <v>3</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="17">
         <v>1</v>
       </c>
       <c r="G65" s="17">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="H65" s="17">
         <v>-1</v>
       </c>
       <c r="I65" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
@@ -4184,25 +4152,25 @@
       </c>
       <c r="B66" s="17"/>
       <c r="C66" s="15">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="20">
         <v>3</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="17">
         <v>1</v>
       </c>
       <c r="G66" s="17">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="H66" s="17">
         <v>-1</v>
       </c>
       <c r="I66" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
@@ -4211,19 +4179,19 @@
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="15">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="20">
         <v>3</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="17">
         <v>1</v>
       </c>
       <c r="G67" s="17">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="H67" s="17">
         <v>-1</v>
@@ -4238,19 +4206,19 @@
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="15">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E68" s="20">
         <v>3</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="17">
         <v>1</v>
       </c>
       <c r="G68" s="17">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="H68" s="17">
         <v>-1</v>
@@ -4265,78 +4233,78 @@
       </c>
       <c r="B69" s="17"/>
       <c r="C69" s="15">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E69" s="20">
         <v>3</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="17">
         <v>1</v>
       </c>
       <c r="G69" s="17">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="H69" s="17">
         <v>-1</v>
       </c>
-      <c r="I69" s="22">
-        <v>10</v>
+      <c r="I69" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:9">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="15">
-        <v>136</v>
-      </c>
-      <c r="D70" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="21">
-        <v>3</v>
-      </c>
-      <c r="F70" s="22">
+      <c r="E70" s="20">
+        <v>4</v>
+      </c>
+      <c r="F70" s="17">
         <v>1</v>
       </c>
       <c r="G70" s="17">
-        <v>3269</v>
+        <v>3280</v>
       </c>
       <c r="H70" s="17">
         <v>-1</v>
       </c>
-      <c r="I70" s="22">
+      <c r="I70" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:9">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="15">
-        <v>137</v>
-      </c>
-      <c r="D71" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E71" s="21">
+      <c r="E71" s="20">
         <v>4</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="17">
         <v>1</v>
       </c>
       <c r="G71" s="17">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="H71" s="17">
         <v>-1</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="17">
         <v>10</v>
       </c>
     </row>
@@ -4346,25 +4314,25 @@
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="15">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="20">
         <v>4</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="17">
         <v>1</v>
       </c>
       <c r="G72" s="17">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="H72" s="17">
         <v>-1</v>
       </c>
       <c r="I72" s="17">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:9">
@@ -4373,25 +4341,25 @@
       </c>
       <c r="B73" s="17"/>
       <c r="C73" s="15">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="20">
         <v>4</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="17">
         <v>1</v>
       </c>
       <c r="G73" s="17">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="H73" s="17">
         <v>-1</v>
       </c>
       <c r="I73" s="17">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:9">
@@ -4400,25 +4368,25 @@
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="15">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="20">
         <v>4</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="17">
         <v>1</v>
       </c>
       <c r="G74" s="17">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="H74" s="17">
         <v>-1</v>
       </c>
       <c r="I74" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:9">
@@ -4427,25 +4395,25 @@
       </c>
       <c r="B75" s="17"/>
       <c r="C75" s="15">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E75" s="21">
+      <c r="E75" s="20">
         <v>4</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="17">
         <v>1</v>
       </c>
       <c r="G75" s="17">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="H75" s="17">
         <v>-1</v>
       </c>
       <c r="I75" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:9">
@@ -4454,25 +4422,25 @@
       </c>
       <c r="B76" s="17"/>
       <c r="C76" s="15">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="20">
         <v>4</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="17">
         <v>1</v>
       </c>
       <c r="G76" s="17">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="H76" s="17">
         <v>-1</v>
       </c>
       <c r="I76" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:9">
@@ -4481,19 +4449,19 @@
       </c>
       <c r="B77" s="17"/>
       <c r="C77" s="15">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E77" s="20">
         <v>4</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="17">
         <v>1</v>
       </c>
       <c r="G77" s="17">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="H77" s="17">
         <v>-1</v>
@@ -4508,25 +4476,25 @@
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="15">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E78" s="21">
+      <c r="E78" s="20">
         <v>4</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="17">
         <v>1</v>
       </c>
       <c r="G78" s="17">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="H78" s="17">
         <v>-1</v>
       </c>
       <c r="I78" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:9">
@@ -4535,294 +4503,24 @@
       </c>
       <c r="B79" s="17"/>
       <c r="C79" s="15">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="21">
+      <c r="E79" s="20">
         <v>4</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="17">
         <v>1</v>
       </c>
       <c r="G79" s="17">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="H79" s="17">
         <v>-1</v>
       </c>
-      <c r="I79" s="22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:9">
-      <c r="A80" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="15">
-        <v>146</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E80" s="21">
-        <v>5</v>
-      </c>
-      <c r="F80" s="22">
-        <v>1</v>
-      </c>
-      <c r="G80" s="17">
-        <v>3300</v>
-      </c>
-      <c r="H80" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I80" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:9">
-      <c r="A81" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="15">
-        <v>147</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" s="21">
-        <v>5</v>
-      </c>
-      <c r="F81" s="22">
-        <v>1</v>
-      </c>
-      <c r="G81" s="17">
-        <v>3301</v>
-      </c>
-      <c r="H81" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I81" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:9">
-      <c r="A82" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="15">
-        <v>148</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E82" s="21">
-        <v>5</v>
-      </c>
-      <c r="F82" s="22">
-        <v>1</v>
-      </c>
-      <c r="G82" s="17">
-        <v>3302</v>
-      </c>
-      <c r="H82" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I82" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:9">
-      <c r="A83" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="15">
-        <v>149</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" s="21">
-        <v>5</v>
-      </c>
-      <c r="F83" s="22">
-        <v>1</v>
-      </c>
-      <c r="G83" s="17">
-        <v>3303</v>
-      </c>
-      <c r="H83" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I83" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:9">
-      <c r="A84" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="15">
-        <v>150</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E84" s="21">
-        <v>5</v>
-      </c>
-      <c r="F84" s="22">
-        <v>1</v>
-      </c>
-      <c r="G84" s="17">
-        <v>3304</v>
-      </c>
-      <c r="H84" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I84" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:9">
-      <c r="A85" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="15">
-        <v>151</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E85" s="21">
-        <v>5</v>
-      </c>
-      <c r="F85" s="22">
-        <v>1</v>
-      </c>
-      <c r="G85" s="17">
-        <v>3305</v>
-      </c>
-      <c r="H85" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I85" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:9">
-      <c r="A86" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="15">
-        <v>152</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E86" s="21">
-        <v>5</v>
-      </c>
-      <c r="F86" s="22">
-        <v>1</v>
-      </c>
-      <c r="G86" s="17">
-        <v>3306</v>
-      </c>
-      <c r="H86" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I86" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:9">
-      <c r="A87" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="15">
-        <v>153</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" s="21">
-        <v>5</v>
-      </c>
-      <c r="F87" s="22">
-        <v>1</v>
-      </c>
-      <c r="G87" s="17">
-        <v>3307</v>
-      </c>
-      <c r="H87" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I87" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:9">
-      <c r="A88" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="15">
-        <v>154</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E88" s="21">
-        <v>5</v>
-      </c>
-      <c r="F88" s="22">
-        <v>1</v>
-      </c>
-      <c r="G88" s="17">
-        <v>3308</v>
-      </c>
-      <c r="H88" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I88" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:9">
-      <c r="A89" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="15">
-        <v>155</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E89" s="21">
-        <v>5</v>
-      </c>
-      <c r="F89" s="22">
-        <v>1</v>
-      </c>
-      <c r="G89" s="17">
-        <v>3309</v>
-      </c>
-      <c r="H89" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I89" s="22">
+      <c r="I79" s="17">
         <v>20</v>
       </c>
     </row>
